--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,02</t>
+          <t>9,83; 18,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 16,91</t>
+          <t>8,73; 16,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,38; 64,58</t>
+          <t>52,73; 64,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,19; 61,23</t>
+          <t>48,4; 61,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,16; 67,09</t>
+          <t>55,81; 67,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,96; 94,77</t>
+          <t>88,23; 94,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,52; 38,04</t>
+          <t>29,61; 38,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 41,12</t>
+          <t>32,61; 40,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,99; 79,04</t>
+          <t>72,17; 78,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,23</t>
+          <t>6,8; 11,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,2</t>
+          <t>6,19; 12,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,32</t>
+          <t>7,87; 13,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>67,4; 77,83</t>
+          <t>68,22; 78,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,5; 59,23</t>
+          <t>50,66; 59,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,43; 65,43</t>
+          <t>56,23; 65,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,36; 61,04</t>
+          <t>52,3; 61,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>87,95; 93,71</t>
+          <t>88,06; 93,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,44; 35,12</t>
+          <t>29,42; 35,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 38,32</t>
+          <t>32,1; 38,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 37,1</t>
+          <t>30,91; 37,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,44; 85,13</t>
+          <t>79,25; 85,04</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 11,12</t>
+          <t>4,59; 11,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,98</t>
+          <t>4,34; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 14,18</t>
+          <t>7,43; 14,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,48; 80,68</t>
+          <t>71,55; 80,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,58; 62,12</t>
+          <t>51,78; 61,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,32; 61,15</t>
+          <t>50,12; 60,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,24; 62,06</t>
+          <t>51,5; 61,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,81; 91,5</t>
+          <t>86,22; 91,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,45; 36,5</t>
+          <t>29,17; 36,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,19; 35,73</t>
+          <t>28,26; 35,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,83; 37,99</t>
+          <t>30,46; 37,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,51; 85,55</t>
+          <t>80,28; 85,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,17</t>
+          <t>3,8; 8,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,71; 13,3</t>
+          <t>8,8; 13,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,88; 21,93</t>
+          <t>13,24; 21,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,98; 72,03</t>
+          <t>58,34; 71,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,66; 52,08</t>
+          <t>41,53; 51,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,46; 65,11</t>
+          <t>57,79; 65,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,15; 68,51</t>
+          <t>58,09; 68,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,39; 91,46</t>
+          <t>83,71; 91,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 30,12</t>
+          <t>23,64; 30,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,62; 38,8</t>
+          <t>33,39; 38,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,61; 44,82</t>
+          <t>37,78; 45,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,43; 82,12</t>
+          <t>74,19; 82,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 16,67</t>
+          <t>7,57; 16,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,03</t>
+          <t>3,44; 10,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,85</t>
+          <t>11,11; 21,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,74; 91,33</t>
+          <t>82,67; 91,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,37; 60,37</t>
+          <t>46,13; 60,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,34; 61,08</t>
+          <t>47,89; 61,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,91; 64,46</t>
+          <t>51,88; 65,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,68; 97,01</t>
+          <t>90,87; 97,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,13; 36,92</t>
+          <t>27,42; 36,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,08; 34,85</t>
+          <t>26,14; 35,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,01; 42,24</t>
+          <t>33,38; 42,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,6; 94,12</t>
+          <t>88,86; 94,19</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,5</t>
+          <t>2,58; 7,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,35</t>
+          <t>2,99; 8,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 15,11</t>
+          <t>7,07; 15,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72,14; 81,31</t>
+          <t>71,89; 81,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,34; 60,52</t>
+          <t>48,32; 60,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,98; 56,25</t>
+          <t>44,5; 56,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,63; 68,24</t>
+          <t>56,54; 67,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,92; 93,82</t>
+          <t>88,93; 94,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,29; 33,91</t>
+          <t>26,26; 34,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,25</t>
+          <t>24,59; 32,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,54; 41,1</t>
+          <t>33,11; 41,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>81,08; 86,61</t>
+          <t>81,38; 86,91</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,07; 13,32</t>
+          <t>8,19; 13,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,69</t>
+          <t>7,42; 12,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,02; 22,58</t>
+          <t>16,12; 22,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,98; 76,66</t>
+          <t>68,41; 76,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,38; 62,13</t>
+          <t>54,63; 62,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,19; 55,22</t>
+          <t>46,85; 54,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,58; 56,29</t>
+          <t>48,24; 56,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,91; 93,42</t>
+          <t>85,83; 93,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,29; 37,86</t>
+          <t>32,42; 37,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,34; 33,8</t>
+          <t>28,55; 33,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,61; 39,25</t>
+          <t>33,48; 38,99</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,1; 86,21</t>
+          <t>78,88; 85,77</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,69</t>
+          <t>4,75; 8,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,84; 13,65</t>
+          <t>8,95; 13,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,33; 17,57</t>
+          <t>12,53; 17,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,21; 45,13</t>
+          <t>32,97; 45,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,73; 56,35</t>
+          <t>48,78; 55,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,37; 54,63</t>
+          <t>47,35; 54,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,38; 50,52</t>
+          <t>43,08; 50,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>90,01; 94,38</t>
+          <t>89,83; 94,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,53; 32,19</t>
+          <t>27,55; 32,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,51; 34,25</t>
+          <t>29,22; 34,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 33,85</t>
+          <t>28,95; 33,6</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>58,73; 69,78</t>
+          <t>59,55; 70,0</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,5</t>
+          <t>7,45; 9,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,41</t>
+          <t>8,32; 10,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,71</t>
+          <t>13,12; 15,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61,28; 66,7</t>
+          <t>60,48; 66,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,43; 55,94</t>
+          <t>52,28; 55,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,34; 56,68</t>
+          <t>53,39; 56,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,58; 57,14</t>
+          <t>53,72; 57,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>89,68; 92,03</t>
+          <t>89,69; 92,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,79</t>
+          <t>30,48; 32,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,51; 33,74</t>
+          <t>31,57; 33,86</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>34,09; 36,35</t>
+          <t>34,04; 36,38</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>76,46; 79,79</t>
+          <t>76,26; 79,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 18,37</t>
+          <t>9,72; 18,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,73; 16,97</t>
+          <t>8,67; 16,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,4; 61,16</t>
+          <t>48,51; 61,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,81; 67,41</t>
+          <t>55,78; 67,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,61; 38,02</t>
+          <t>29,74; 37,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,61; 40,77</t>
+          <t>32,46; 40,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,94</t>
+          <t>6,92; 12,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,03</t>
+          <t>6,15; 12,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,64</t>
+          <t>7,53; 13,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,66; 59,66</t>
+          <t>50,26; 58,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,23; 65,43</t>
+          <t>56,64; 64,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,3; 61,15</t>
+          <t>52,63; 61,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,42; 35,21</t>
+          <t>29,06; 35,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,1; 38,67</t>
+          <t>32,3; 38,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,91; 37,19</t>
+          <t>31,0; 37,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 11,49</t>
+          <t>4,69; 11,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,13</t>
+          <t>4,36; 10,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,43; 14,2</t>
+          <t>7,49; 14,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,78; 61,95</t>
+          <t>51,82; 62,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,12; 60,77</t>
+          <t>50,13; 61,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,5; 61,91</t>
+          <t>51,58; 62,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 36,62</t>
+          <t>29,13; 36,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,26; 35,71</t>
+          <t>28,01; 35,4</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 37,91</t>
+          <t>30,07; 37,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,92</t>
+          <t>3,83; 9,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,73</t>
+          <t>8,82; 13,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,68</t>
+          <t>13,47; 21,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,53; 51,4</t>
+          <t>41,35; 51,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,7</t>
+          <t>57,05; 65,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,09; 68,33</t>
+          <t>58,6; 68,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,64; 30,02</t>
+          <t>23,75; 30,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,39; 38,95</t>
+          <t>33,68; 39,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,78; 45,21</t>
+          <t>37,83; 44,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,76</t>
+          <t>7,36; 16,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,38</t>
+          <t>3,33; 10,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 21,04</t>
+          <t>11,38; 21,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>46,13; 60,02</t>
+          <t>45,81; 60,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,89; 61,33</t>
+          <t>47,29; 60,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,88; 65,36</t>
+          <t>51,87; 64,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,42; 36,98</t>
+          <t>27,69; 36,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,14; 35,38</t>
+          <t>26,22; 35,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,38; 42,08</t>
+          <t>33,12; 42,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,69</t>
+          <t>2,57; 7,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,62</t>
+          <t>2,94; 8,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,73</t>
+          <t>7,19; 15,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,32; 60,42</t>
+          <t>49,03; 60,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,5; 56,48</t>
+          <t>45,44; 57,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,54; 67,68</t>
+          <t>56,44; 68,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,26; 34,04</t>
+          <t>26,21; 33,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,26</t>
+          <t>24,45; 31,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>33,11; 41,35</t>
+          <t>32,9; 41,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 13,44</t>
+          <t>8,09; 13,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,48</t>
+          <t>7,71; 12,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,12; 22,69</t>
+          <t>16,04; 22,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,63; 62,25</t>
+          <t>54,96; 62,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,85; 54,95</t>
+          <t>46,85; 54,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,24; 56,07</t>
+          <t>48,95; 56,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,42; 37,68</t>
+          <t>32,08; 37,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,55; 33,54</t>
+          <t>28,46; 33,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 38,99</t>
+          <t>33,39; 38,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,57</t>
+          <t>4,87; 8,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,95; 13,92</t>
+          <t>9,03; 13,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,53; 17,45</t>
+          <t>12,23; 17,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,78; 55,94</t>
+          <t>48,76; 56,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,35; 54,6</t>
+          <t>47,69; 54,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,08; 50,19</t>
+          <t>43,38; 50,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,55; 32,3</t>
+          <t>27,59; 32,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,22; 34,19</t>
+          <t>29,3; 34,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,95; 33,6</t>
+          <t>28,93; 33,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,46</t>
+          <t>7,46; 9,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 10,31</t>
+          <t>8,25; 10,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,12; 15,67</t>
+          <t>13,18; 15,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,28; 55,73</t>
+          <t>52,27; 55,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,72; 57,06</t>
+          <t>53,6; 57,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,48; 32,88</t>
+          <t>30,46; 32,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,57; 33,86</t>
+          <t>31,54; 33,77</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,38</t>
+          <t>34,04; 36,52</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>36,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,45</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 16,74</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,73; 64,68</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,51; 61,22</t>
+          <t>0; 0,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>55,78; 67,67</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,23; 94,57</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,74; 37,89</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 40,94</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,17; 78,88</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>60,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>33,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,08</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,02</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,47</t>
+          <t>0; 0,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>68,22; 78,17</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,26; 58,91</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,64; 64,95</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,63; 61,17</t>
+          <t>0; 0,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,06; 93,79</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,06; 35,03</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 38,38</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 37,3</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 85,04</t>
+          <t>0; 0,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>56,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 11,31</t>
+          <t>0; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 10,2</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 14,06</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,55; 80,44</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,82; 62,02</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,13; 61,6</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>51,58; 62,22</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,22; 91,73</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,13; 36,26</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,01; 35,4</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,07; 37,93</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>80,28; 85,69</t>
+          <t>0; 0,21</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>63,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,05</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,83</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 21,83</t>
+          <t>0; 0,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,34; 71,94</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,35; 51,68</t>
+          <t>0; 0,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,05; 65,21</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,6; 68,72</t>
+          <t>0; 0,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,71; 91,64</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,24</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,68; 39,34</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,83; 44,87</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,19; 82,13</t>
+          <t>0; 0,22</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>53,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>37,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,36; 16,23</t>
+          <t>0; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,33; 10,1</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 21,34</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82,67; 91,64</t>
+          <t>0; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>45,81; 60,2</t>
+          <t>0; 0,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,29; 60,95</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,87; 64,57</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,87; 97,19</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,69; 36,97</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,22; 35,23</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,12; 42,38</t>
+          <t>0; 0,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>88,86; 94,19</t>
+          <t>0; 0,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>54,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,71</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,36</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,19; 15,25</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,89; 81,28</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,03; 60,7</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>45,44; 57,25</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>56,44; 68,62</t>
+          <t>0; 0,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,93; 94,01</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,64</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 31,93</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,9; 41,26</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>81,38; 86,91</t>
+          <t>0; 0,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>81,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,11</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,71; 12,65</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,04; 22,66</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68,41; 76,87</t>
+          <t>0; 0,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>54,96; 62,42</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,85; 54,77</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>48,95; 56,06</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,83; 93,23</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32,08; 37,75</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,46; 33,61</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,39; 38,89</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>78,88; 85,77</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>46,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>66,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,49</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,03; 13,87</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,46</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>32,97; 45,02</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>48,76; 56,18</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,69; 54,69</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,38; 50,22</t>
+          <t>0; 0,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>89,83; 94,26</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,59; 32,39</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,25</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28,93; 33,7</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>59,55; 70,0</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>54,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,49</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,45</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,18; 15,7</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>60,48; 66,52</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,27; 55,84</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,39; 56,75</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>53,6; 57,01</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>89,69; 92,04</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,46; 32,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,54; 33,77</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>34,04; 36,52</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>76,26; 79,87</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">

--- a/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +787,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +927,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1346,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1486,7 +1487,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2112</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1801</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2035</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1993</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1032</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2073</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2598</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1935</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1377</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1682</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1916</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2058</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1248</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1883</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1425</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1897</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2081</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1851</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1522</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2071</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1226</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1978</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1873</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1002</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1893</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1084</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1391</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1985</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1071</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1216</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2170</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2091</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2052</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1697</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1972</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2076</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2110</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1814</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1938</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2084</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2337</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1297</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2087</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1733</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1328</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1576</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>